--- a/06-python/src/comp230-excel/invoice_5.xlsx
+++ b/06-python/src/comp230-excel/invoice_5.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -42,6 +42,12 @@
       <b val="1"/>
       <color rgb="005A49A5"/>
       <sz val="12"/>
+    </font>
+    <font>
+      <name val="Arial Rounded MT Bold"/>
+      <b val="1"/>
+      <color rgb="008E44AD"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -75,9 +81,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -443,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,6 +456,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -463,11 +472,6 @@
       <c r="B1" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>INVOICE 5</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -480,9 +484,9 @@
           <t>2020-03-25</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
-        <is>
-          <t>Uranka's Outdoors</t>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Uranka's Outdoors - Invoice</t>
         </is>
       </c>
     </row>
@@ -539,6 +543,38 @@
       <c r="B7" s="2" t="inlineStr">
         <is>
           <t>48929</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="inlineStr">
+        <is>
+          <t>Unit Price</t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="F11" s="4" t="inlineStr">
+        <is>
+          <t>Amount Due</t>
         </is>
       </c>
     </row>

--- a/06-python/src/comp230-excel/invoice_5.xlsx
+++ b/06-python/src/comp230-excel/invoice_5.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -46,8 +46,14 @@
     <font>
       <name val="Arial Rounded MT Bold"/>
       <b val="1"/>
-      <color rgb="008E44AD"/>
+      <color rgb="005A49A5"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial Rounded MT Bold"/>
+      <b val="1"/>
+      <color rgb="00A872DD"/>
+      <sz val="14"/>
     </font>
   </fonts>
   <fills count="2">
@@ -70,7 +76,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -81,7 +87,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -447,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +467,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="2" max="2"/>
     <col width="20" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
@@ -547,34 +558,96 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
       </c>
-      <c r="D11" s="4" t="inlineStr">
+      <c r="D11" s="1" t="inlineStr">
         <is>
           <t>Unit Price</t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="1" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="1" t="inlineStr">
         <is>
           <t>Amount Due</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>Gloves</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>Breathable riding gloves</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>$10</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>$110</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>Mirror</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>Beautiful hand-held mirror</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>$6.5</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>$26.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="n"/>
+      <c r="B14" s="4" t="n"/>
+      <c r="C14" s="4" t="n"/>
+      <c r="D14" s="4" t="n"/>
+      <c r="E14" s="4" t="n"/>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>$136.0</t>
         </is>
       </c>
     </row>
